--- a/Kevin/CS470.skel/hw4/plot_impulse_function.xlsx
+++ b/Kevin/CS470.skel/hw4/plot_impulse_function.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/classes/image processing/Image-Processing-Projects/Anthony/CS470.skel/hw4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kille\Desktop\Git\Image-Processing-Projects\Kevin\CS470.skel\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B042C13-C573-0C44-A4C9-80A0A6859BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4D35B-D3B5-464A-9A41-9775E72E6592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
+    <workbookView xWindow="4673" yWindow="2295" windowWidth="18000" windowHeight="9848" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$257</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$257</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$257</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$257</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,6 +109,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impulse Input</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -194,10 +209,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$257</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -299,10 +314,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$257</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -424,6 +439,8 @@
         <c:axId val="75675151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="31"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -486,6 +503,7 @@
         <c:axId val="62731727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1485,13 +1503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CA3519-28AF-504C-8DD5-4616A52CA790}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1579,7 +1597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1611,7 +1629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1635,7 +1653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1651,7 +1669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1739,7 +1757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>31</v>
       </c>

--- a/Kevin/CS470.skel/hw4/plot_impulse_function.xlsx
+++ b/Kevin/CS470.skel/hw4/plot_impulse_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kille\Desktop\Git\Image-Processing-Projects\Kevin\CS470.skel\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4D35B-D3B5-464A-9A41-9775E72E6592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FC7D01-5A46-4A43-95BA-C4513AF915F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="2295" windowWidth="18000" windowHeight="9848" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
+    <workbookView xWindow="4335" yWindow="1958" windowWidth="18000" windowHeight="9847" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,16 +1167,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
